--- a/mega_datalogger/mega_pinouts.xlsx
+++ b/mega_datalogger/mega_pinouts.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\GitHub\GreenhouseHVAC\mega_datalogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66D76E-0ED9-4DD7-98EF-F5BE7095071C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88744ED5-91B8-4FCC-8DAD-1FEDB47F4624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4785" yWindow="4800" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{613FAFC2-106D-4226-818B-E16DFC4791C8}"/>
+    <workbookView xWindow="4950" yWindow="870" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{613FAFC2-106D-4226-818B-E16DFC4791C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinouts" sheetId="1" r:id="rId1"/>
     <sheet name="Arrays" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1466,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50295567-E213-4C52-ABA6-F26FF9EEE0BC}">
   <dimension ref="A3:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,4 +1979,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61281FE8-CEBE-4854-9DA5-543570A40556}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mega_datalogger/mega_pinouts.xlsx
+++ b/mega_datalogger/mega_pinouts.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\GitHub\GreenhouseHVAC\mega_datalogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88744ED5-91B8-4FCC-8DAD-1FEDB47F4624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1602D6A-3CBE-46F1-9002-F3980B0DB79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4950" yWindow="870" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{613FAFC2-106D-4226-818B-E16DFC4791C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinouts" sheetId="1" r:id="rId1"/>
     <sheet name="Arrays" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Scratch" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
   <si>
     <t>GND</t>
   </si>
@@ -339,6 +339,69 @@
   </si>
   <si>
     <t>sensors</t>
+  </si>
+  <si>
+    <t>09:51:22.960 -&gt; Heat mode not enabled, heater timer reset</t>
+  </si>
+  <si>
+    <t>09:51:23.007 -&gt; 0111111111000000</t>
+  </si>
+  <si>
+    <t>09:51:23.753 -&gt; 67, 56, 67, 56, 67, 53, 0, 0, ,68,67,-196,-196,-196,-196,-196,</t>
+  </si>
+  <si>
+    <t>09:51:23.941 -&gt; 67</t>
+  </si>
+  <si>
+    <t>09:57:34.749 -&gt; CoolingStage: 0</t>
+  </si>
+  <si>
+    <t>09:57:34.796 -&gt; Heat mode not enabled, heater timer reset</t>
+  </si>
+  <si>
+    <t>09:57:34.843 -&gt; 1111111111111111</t>
+  </si>
+  <si>
+    <t>09:57:35.591 -&gt; 67, 57, 67, 56, 68, 54, 0, 0, ,68,67,-196,-196,-196,-196,-196,</t>
+  </si>
+  <si>
+    <t>09:57:35.826 -&gt; 67</t>
+  </si>
+  <si>
+    <t>09:57:35.826 -&gt; CoolingStage: 0</t>
+  </si>
+  <si>
+    <t>10:00:20.700 -&gt; Evap Cooler Hi</t>
+  </si>
+  <si>
+    <t>10:00:20.746 -&gt; Failed to read humidity from DHT sensor, cannot activate misters until corrected!</t>
+  </si>
+  <si>
+    <t>10:00:20.839 -&gt; Heat mode not enabled, heater timer reset</t>
+  </si>
+  <si>
+    <t>10:00:20.886 -&gt; 1101100001111111</t>
+  </si>
+  <si>
+    <t>10:00:21.494 -&gt; 67, 58, 0, 0, 68, 54, 0, 0, ,88,67,-196,-196,-196,-196,-196,</t>
+  </si>
+  <si>
+    <t>10:00:21.774 -&gt; 560</t>
+  </si>
+  <si>
+    <t>10:00:21.774 -&gt; CoolingStage: 3</t>
+  </si>
+  <si>
+    <t>10:00:21.774 -&gt; Evap Cooler Hi</t>
+  </si>
+  <si>
+    <t>10:00:21.820 -&gt; Failed to read humidity from DHT sensor, cannot activate misters until corrected!</t>
+  </si>
+  <si>
+    <t>10:00:21.913 -&gt; Heat mode not enabled, heater timer reset</t>
+  </si>
+  <si>
+    <t>10:00:21.959 -&gt; 1101100001111111</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50295567-E213-4C52-ABA6-F26FF9EEE0BC}">
   <dimension ref="A3:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1983,14 +2046,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61281FE8-CEBE-4854-9DA5-543570A40556}">
-  <dimension ref="A1"/>
+  <dimension ref="A5:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mega_datalogger/mega_pinouts.xlsx
+++ b/mega_datalogger/mega_pinouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\GitHub\GreenhouseHVAC\mega_datalogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1602D6A-3CBE-46F1-9002-F3980B0DB79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975FD0A-35B4-4F95-9B41-CFE8285230DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="870" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{613FAFC2-106D-4226-818B-E16DFC4791C8}"/>
+    <workbookView xWindow="990" yWindow="1875" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{613FAFC2-106D-4226-818B-E16DFC4791C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinouts" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
   <si>
     <t>GND</t>
   </si>
@@ -339,69 +339,6 @@
   </si>
   <si>
     <t>sensors</t>
-  </si>
-  <si>
-    <t>09:51:22.960 -&gt; Heat mode not enabled, heater timer reset</t>
-  </si>
-  <si>
-    <t>09:51:23.007 -&gt; 0111111111000000</t>
-  </si>
-  <si>
-    <t>09:51:23.753 -&gt; 67, 56, 67, 56, 67, 53, 0, 0, ,68,67,-196,-196,-196,-196,-196,</t>
-  </si>
-  <si>
-    <t>09:51:23.941 -&gt; 67</t>
-  </si>
-  <si>
-    <t>09:57:34.749 -&gt; CoolingStage: 0</t>
-  </si>
-  <si>
-    <t>09:57:34.796 -&gt; Heat mode not enabled, heater timer reset</t>
-  </si>
-  <si>
-    <t>09:57:34.843 -&gt; 1111111111111111</t>
-  </si>
-  <si>
-    <t>09:57:35.591 -&gt; 67, 57, 67, 56, 68, 54, 0, 0, ,68,67,-196,-196,-196,-196,-196,</t>
-  </si>
-  <si>
-    <t>09:57:35.826 -&gt; 67</t>
-  </si>
-  <si>
-    <t>09:57:35.826 -&gt; CoolingStage: 0</t>
-  </si>
-  <si>
-    <t>10:00:20.700 -&gt; Evap Cooler Hi</t>
-  </si>
-  <si>
-    <t>10:00:20.746 -&gt; Failed to read humidity from DHT sensor, cannot activate misters until corrected!</t>
-  </si>
-  <si>
-    <t>10:00:20.839 -&gt; Heat mode not enabled, heater timer reset</t>
-  </si>
-  <si>
-    <t>10:00:20.886 -&gt; 1101100001111111</t>
-  </si>
-  <si>
-    <t>10:00:21.494 -&gt; 67, 58, 0, 0, 68, 54, 0, 0, ,88,67,-196,-196,-196,-196,-196,</t>
-  </si>
-  <si>
-    <t>10:00:21.774 -&gt; 560</t>
-  </si>
-  <si>
-    <t>10:00:21.774 -&gt; CoolingStage: 3</t>
-  </si>
-  <si>
-    <t>10:00:21.774 -&gt; Evap Cooler Hi</t>
-  </si>
-  <si>
-    <t>10:00:21.820 -&gt; Failed to read humidity from DHT sensor, cannot activate misters until corrected!</t>
-  </si>
-  <si>
-    <t>10:00:21.913 -&gt; Heat mode not enabled, heater timer reset</t>
-  </si>
-  <si>
-    <t>10:00:21.959 -&gt; 1101100001111111</t>
   </si>
 </sst>
 </file>
@@ -2046,135 +1983,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61281FE8-CEBE-4854-9DA5-543570A40556}">
-  <dimension ref="A5:A31"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mega_datalogger/mega_pinouts.xlsx
+++ b/mega_datalogger/mega_pinouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\GitHub\GreenhouseHVAC\mega_datalogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2975FD0A-35B4-4F95-9B41-CFE8285230DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C938A212-3F3F-4183-8481-6D11599E44FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1875" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{613FAFC2-106D-4226-818B-E16DFC4791C8}"/>
+    <workbookView xWindow="990" yWindow="1875" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{613FAFC2-106D-4226-818B-E16DFC4791C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinouts" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
   <si>
     <t>GND</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>sensors</t>
+  </si>
+  <si>
+    <t>Removed, DHT22 can't be placed more than 1m out</t>
+  </si>
+  <si>
+    <t>removed DHT22 cannot be placed past 1m</t>
   </si>
 </sst>
 </file>
@@ -368,12 +374,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -388,9 +400,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7E0061-D64D-44EA-BC0C-D42A4DD10076}">
   <dimension ref="A2:E97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,14 +964,17 @@
       <c r="A35">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1465,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50295567-E213-4C52-ABA6-F26FF9EEE0BC}">
-  <dimension ref="A3:G47"/>
+  <dimension ref="A3:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,111 +1884,88 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>88</v>
       </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
       <c r="C35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
-      <c r="B36">
-        <v>7</v>
-      </c>
       <c r="C36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>6</v>
-      </c>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>5</v>
-      </c>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>3</v>
-      </c>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>2</v>
-      </c>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>96</v>
       </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>24</v>
-      </c>
-      <c r="C46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
         <v>25</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C46" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1985,7 +1978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61281FE8-CEBE-4854-9DA5-543570A40556}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/mega_datalogger/mega_pinouts.xlsx
+++ b/mega_datalogger/mega_pinouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\GitHub\GreenhouseHVAC\mega_datalogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C938A212-3F3F-4183-8481-6D11599E44FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E743FC2B-BD51-4571-8F38-DD4EC77BA326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1875" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{613FAFC2-106D-4226-818B-E16DFC4791C8}"/>
+    <workbookView xWindow="22365" yWindow="4980" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{613FAFC2-106D-4226-818B-E16DFC4791C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinouts" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
   <si>
     <t>GND</t>
   </si>
@@ -341,10 +341,16 @@
     <t>sensors</t>
   </si>
   <si>
-    <t>Removed, DHT22 can't be placed more than 1m out</t>
-  </si>
-  <si>
     <t>removed DHT22 cannot be placed past 1m</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>DHT33</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7E0061-D64D-44EA-BC0C-D42A4DD10076}">
-  <dimension ref="A2:E97"/>
+  <dimension ref="A2:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,9 +737,10 @@
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -748,33 +756,36 @@
       <c r="E2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -788,37 +799,37 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -922,60 +933,25 @@
       <c r="A32">
         <v>22</v>
       </c>
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>23</v>
       </c>
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24</v>
       </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -986,21 +962,54 @@
       <c r="A37">
         <v>27</v>
       </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>28</v>
       </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>29</v>
       </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>30</v>
       </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
       <c r="D40" t="s">
         <v>57</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>39</v>
       </c>
@@ -1133,8 +1142,14 @@
       <c r="D49" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>1.5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>40</v>
       </c>
@@ -1147,8 +1162,11 @@
       <c r="D50" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>41</v>
       </c>
@@ -1164,8 +1182,11 @@
       <c r="E51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>42</v>
       </c>
@@ -1181,8 +1202,11 @@
       <c r="E52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>43</v>
       </c>
@@ -1198,8 +1222,11 @@
       <c r="E53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>44</v>
       </c>
@@ -1215,8 +1242,11 @@
       <c r="E54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>45</v>
       </c>
@@ -1232,8 +1262,11 @@
       <c r="E55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>46</v>
       </c>
@@ -1247,7 +1280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>47</v>
       </c>
@@ -1255,37 +1288,37 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -1483,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50295567-E213-4C52-ABA6-F26FF9EEE0BC}">
   <dimension ref="A3:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,38 +1967,36 @@
       <c r="A43" t="s">
         <v>96</v>
       </c>
-      <c r="B43">
-        <v>22</v>
-      </c>
       <c r="C43" t="s">
         <v>97</v>
       </c>
+      <c r="D43">
+        <v>27</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>23</v>
-      </c>
       <c r="C44" t="s">
         <v>98</v>
       </c>
+      <c r="D44">
+        <v>28</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>24</v>
-      </c>
       <c r="C45" t="s">
         <v>99</v>
       </c>
+      <c r="D45">
+        <v>29</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="2">
-        <v>25</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
